--- a/src/main/resources/outputData.xlsx
+++ b/src/main/resources/outputData.xlsx
@@ -6,51 +6,27 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="ResultadosCarrito" r:id="rId3" sheetId="1"/>
+    <sheet name="ProductosCarrito" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Producto</t>
+    <t>Nombre</t>
   </si>
   <si>
-    <t>Estado</t>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
   </si>
   <si>
     <t>Precio Unitario</t>
   </si>
   <si>
     <t>Precio Total</t>
-  </si>
-  <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
-    <t>Iphone</t>
-  </si>
-  <si>
-    <t>AGREGADO EXITOSAMENTE</t>
-  </si>
-  <si>
-    <t>$123.20</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>MacBook</t>
-  </si>
-  <si>
-    <t>$602.00</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy</t>
-  </si>
-  <si>
-    <t>$241.99</t>
   </si>
 </sst>
 </file>
@@ -95,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -118,57 +94,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/outputData.xlsx
+++ b/src/main/resources/outputData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Nombre</t>
   </si>
@@ -27,6 +27,69 @@
   </si>
   <si>
     <t>Precio Total</t>
+  </si>
+  <si>
+    <t>Reward Points</t>
+  </si>
+  <si>
+    <t>Samsung SyncMaster 941BW</t>
+  </si>
+  <si>
+    <t>Product 6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>$242.00</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>iPhone</t>
+  </si>
+  <si>
+    <t>product 11</t>
+  </si>
+  <si>
+    <t>$123.20</t>
+  </si>
+  <si>
+    <t>MacBook</t>
+  </si>
+  <si>
+    <t>Product 16</t>
+  </si>
+  <si>
+    <t>$602.00</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>MacBook Air</t>
+  </si>
+  <si>
+    <t>Product 17</t>
+  </si>
+  <si>
+    <t>$1,202.00</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab 10.1</t>
+  </si>
+  <si>
+    <t>SAM1</t>
+  </si>
+  <si>
+    <t>$241.99</t>
+  </si>
+  <si>
+    <t>1000</t>
   </si>
 </sst>
 </file>
@@ -71,7 +134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -93,6 +156,109 @@
       <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
